--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>abc</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>search-alias=stripbooks</t>
+  </si>
+  <si>
+    <t>//a[text()='Mobiles']</t>
+  </si>
+  <si>
+    <t>mobiles</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +803,12 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
